--- a/我的创作/人生计划-执行-结果.xlsx
+++ b/我的创作/人生计划-执行-结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="13420" activeTab="2"/>
+    <workbookView windowWidth="26500" windowHeight="13420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="人生资产负债表" sheetId="1" r:id="rId1"/>
@@ -120,9 +120,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -134,14 +134,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,16 +171,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,9 +193,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,13 +209,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -209,8 +217,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,13 +242,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,40 +255,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,13 +298,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,169 +478,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,11 +614,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,8 +641,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,194 +711,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1462,8 +1462,8 @@
   <sheetPr/>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>
@@ -1770,7 +1770,7 @@
   <sheetPr/>
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>

--- a/我的创作/人生计划-执行-结果.xlsx
+++ b/我的创作/人生计划-执行-结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="13420" activeTab="1"/>
+    <workbookView windowWidth="26500" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="人生资产负债表" sheetId="1" r:id="rId1"/>
@@ -1228,8 +1228,8 @@
   <sheetPr/>
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="3"/>
@@ -1462,8 +1462,8 @@
   <sheetPr/>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>

--- a/我的创作/人生计划-执行-结果.xlsx
+++ b/我的创作/人生计划-执行-结果.xlsx
@@ -120,9 +120,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -140,6 +140,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -148,8 +163,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,11 +187,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -178,24 +201,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,24 +233,30 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,28 +269,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -269,13 +276,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -298,73 +298,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,103 +448,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,6 +610,39 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,37 +664,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -683,21 +689,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -711,153 +702,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1229,7 +1229,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="3"/>

--- a/我的创作/人生计划-执行-结果.xlsx
+++ b/我的创作/人生计划-执行-结果.xlsx
@@ -119,10 +119,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -130,6 +130,28 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -147,8 +169,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -163,8 +192,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -181,101 +271,11 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -298,181 +298,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,8 +617,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,7 +627,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,27 +647,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -683,6 +666,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -705,9 +703,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,148 +716,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1229,7 +1229,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="3"/>
